--- a/气象/蒙古相关/蒙古强冷站高低温获取脚本JSON准备表.xlsx
+++ b/气象/蒙古相关/蒙古强冷站高低温获取脚本JSON准备表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116F4A2-57F5-4F56-B8F6-C384CAEE3BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C1906D-31E0-4B6E-921F-3BFB350CE242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{09D37244-5CA5-4C8F-A8EF-9B6C8D6DF31E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="129">
   <si>
     <t>站点</t>
   </si>
@@ -604,6 +604,14 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Налайх</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Хан-Уул (Буянт-Ухаа)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,15 +1066,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58AB29C-E686-4BBD-BC4A-08D898E9C104}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
     <col min="2" max="2" width="32.59765625" customWidth="1"/>
-    <col min="3" max="4" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -1270,13 +1281,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1284,13 +1295,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1298,13 +1309,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1312,13 +1323,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1326,13 +1337,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1340,13 +1351,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1354,13 +1365,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1368,13 +1379,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1382,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1396,27 +1407,27 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1424,27 +1435,27 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1452,13 +1463,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1466,13 +1477,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1480,13 +1491,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1494,13 +1505,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1508,13 +1519,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1522,13 +1533,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1536,13 +1547,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1550,13 +1561,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1564,13 +1575,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1578,27 +1589,27 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>107</v>
+      <c r="D38" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1606,27 +1617,27 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>109</v>
+      <c r="D40" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1634,13 +1645,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1648,13 +1659,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1662,13 +1673,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1676,13 +1687,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1690,13 +1701,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1704,13 +1715,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1718,13 +1729,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1732,13 +1743,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1746,13 +1757,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1760,13 +1771,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1774,41 +1785,41 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
@@ -1816,27 +1827,27 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>123</v>
+        <v>81</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
@@ -1844,13 +1855,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>124</v>
+      <c r="D56" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -1858,12 +1869,40 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D57" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>125</v>
       </c>
     </row>
